--- a/Transfer application form.xlsx
+++ b/Transfer application form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="11355" windowHeight="7965" tabRatio="892" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="11355" windowHeight="7965" tabRatio="892" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Check List" sheetId="15" state="hidden" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="495">
   <si>
     <t>JOINING REPORT</t>
   </si>
@@ -1544,15 +1544,9 @@
     <t>Analyst</t>
   </si>
   <si>
-    <t>11th july 2018</t>
-  </si>
-  <si>
     <t>kapilpatidar800@gmail.com</t>
   </si>
   <si>
-    <t>unmarried</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
@@ -1608,6 +1602,12 @@
   </si>
   <si>
     <t>Ram Pyari Patidar</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>Bhawanimandi,Rajasthan</t>
   </si>
 </sst>
 </file>
@@ -5681,9 +5681,9 @@
         <v>78</v>
       </c>
       <c r="B3" s="462"/>
-      <c r="C3" s="456" t="str">
+      <c r="C3" s="456">
         <f>+MASTERSHEET!B6</f>
-        <v>11th july 2018</v>
+        <v>43292</v>
       </c>
       <c r="D3" s="456"/>
       <c r="E3" s="54"/>
@@ -5951,9 +5951,9 @@
       <c r="E20" s="124" t="s">
         <v>106</v>
       </c>
-      <c r="F20" s="125" t="str">
+      <c r="F20" s="125">
         <f>+MASTERSHEET!B6</f>
-        <v>11th july 2018</v>
+        <v>43292</v>
       </c>
       <c r="G20" s="55"/>
     </row>
@@ -6700,9 +6700,9 @@
       <c r="A33" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="B33" s="52" t="str">
+      <c r="B33" s="52">
         <f>MASTERSHEET!B6</f>
-        <v>11th july 2018</v>
+        <v>43292</v>
       </c>
       <c r="C33" s="38"/>
       <c r="D33" s="38"/>
@@ -6727,9 +6727,9 @@
       <c r="A35" s="68" t="s">
         <v>153</v>
       </c>
-      <c r="B35" s="57" t="str">
+      <c r="B35" s="57">
         <f>MASTERSHEET!B6</f>
-        <v>11th july 2018</v>
+        <v>43292</v>
       </c>
       <c r="C35" s="38"/>
       <c r="D35" s="38"/>
@@ -6965,9 +6965,9 @@
       <c r="A12" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="57" t="str">
+      <c r="B12" s="57">
         <f>MASTERSHEET!B6</f>
-        <v>11th july 2018</v>
+        <v>43292</v>
       </c>
       <c r="C12" s="41"/>
       <c r="D12" s="48"/>
@@ -7130,9 +7130,9 @@
       <c r="A30" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="B30" s="57" t="str">
+      <c r="B30" s="57">
         <f>MASTERSHEET!B6</f>
-        <v>11th july 2018</v>
+        <v>43292</v>
       </c>
       <c r="C30" s="38"/>
       <c r="D30" s="48"/>
@@ -7642,9 +7642,9 @@
         <v>152</v>
       </c>
       <c r="B30" s="70"/>
-      <c r="C30" s="57" t="str">
+      <c r="C30" s="57">
         <f>'Check List'!C3:D3</f>
-        <v>11th july 2018</v>
+        <v>43292</v>
       </c>
       <c r="D30" s="38"/>
       <c r="E30" s="38"/>
@@ -7683,9 +7683,9 @@
         <v>153</v>
       </c>
       <c r="B33" s="70"/>
-      <c r="C33" s="87" t="str">
+      <c r="C33" s="87">
         <f>MASTERSHEET!B6</f>
-        <v>11th july 2018</v>
+        <v>43292</v>
       </c>
       <c r="D33" s="38"/>
       <c r="E33" s="38"/>
@@ -8161,9 +8161,9 @@
       <c r="B31" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="87" t="str">
+      <c r="C31" s="87">
         <f>MASTERSHEET!B6</f>
-        <v>11th july 2018</v>
+        <v>43292</v>
       </c>
       <c r="D31" s="38"/>
       <c r="E31" s="38"/>
@@ -8705,8 +8705,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AO77"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -8833,7 +8833,7 @@
         <v>195</v>
       </c>
       <c r="D5" s="418" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E5" s="430" t="s">
         <v>197</v>
@@ -8864,14 +8864,14 @@
       <c r="A6" s="448" t="s">
         <v>158</v>
       </c>
-      <c r="B6" s="419" t="s">
-        <v>473</v>
+      <c r="B6" s="419">
+        <v>43292</v>
       </c>
       <c r="C6" s="430" t="s">
         <v>159</v>
       </c>
       <c r="D6" s="418" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E6" s="430" t="s">
         <v>196</v>
@@ -8899,19 +8899,19 @@
         <v>161</v>
       </c>
       <c r="B7" s="418" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C7" s="430" t="s">
         <v>52</v>
       </c>
       <c r="D7" s="418" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="E7" s="430" t="s">
         <v>160</v>
       </c>
       <c r="F7" s="414" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G7" s="144"/>
       <c r="H7" s="141"/>
@@ -8942,7 +8942,7 @@
         <v>175</v>
       </c>
       <c r="D8" s="418" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="E8" s="430" t="s">
         <v>162</v>
@@ -9212,11 +9212,11 @@
         <v>74</v>
       </c>
       <c r="B18" s="418" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C18" s="418"/>
       <c r="D18" s="418" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E18" s="430" t="s">
         <v>443</v>
@@ -9228,7 +9228,7 @@
         <v>47</v>
       </c>
       <c r="H18" s="420" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="19" spans="1:41" s="165" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9236,11 +9236,11 @@
         <v>75</v>
       </c>
       <c r="B19" s="421" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C19" s="418"/>
       <c r="D19" s="418" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E19" s="431" t="s">
         <v>442</v>
@@ -9252,7 +9252,7 @@
         <v>39</v>
       </c>
       <c r="H19" s="420" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="20" spans="1:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9271,7 +9271,7 @@
         <v>469</v>
       </c>
       <c r="B21" s="466" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C21" s="467"/>
       <c r="D21" s="468"/>
@@ -9335,22 +9335,22 @@
         <v>261</v>
       </c>
       <c r="B25" s="418" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C25" s="418" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D25" s="418" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E25" s="434" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F25" s="434" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G25" s="434" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H25" s="432"/>
     </row>
@@ -9359,22 +9359,22 @@
         <v>262</v>
       </c>
       <c r="B26" s="418" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C26" s="418" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D26" s="418" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E26" s="434" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F26" s="434" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G26" s="434" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H26" s="432"/>
     </row>
@@ -9395,13 +9395,13 @@
         <v>264</v>
       </c>
       <c r="B28" s="418" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C28" s="418" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D28" s="418" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E28" s="434"/>
       <c r="F28" s="434"/>
@@ -9413,13 +9413,13 @@
         <v>265</v>
       </c>
       <c r="B29" s="418" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C29" s="418" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D29" s="418" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E29" s="434"/>
       <c r="F29" s="434"/>
@@ -9431,13 +9431,13 @@
         <v>64</v>
       </c>
       <c r="B30" s="433" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C30" s="433" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D30" s="433" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E30" s="434"/>
       <c r="F30" s="434"/>
@@ -9523,13 +9523,13 @@
         <v>441</v>
       </c>
       <c r="B36" s="418" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C36" s="418" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D36" s="418" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E36" s="418">
         <v>47</v>
@@ -9545,13 +9545,13 @@
         <v>37</v>
       </c>
       <c r="B37" s="418" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C37" s="418" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D37" s="418" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E37" s="418">
         <v>47</v>
@@ -9567,13 +9567,13 @@
         <v>450</v>
       </c>
       <c r="B38" s="418" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C38" s="418" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D38" s="418" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E38" s="418">
         <v>47</v>
@@ -9589,13 +9589,13 @@
         <v>60</v>
       </c>
       <c r="B39" s="418" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C39" s="418" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D39" s="418" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E39" s="418">
         <v>47</v>
@@ -9611,13 +9611,13 @@
         <v>182</v>
       </c>
       <c r="B40" s="418" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C40" s="418" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D40" s="418" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E40" s="418">
         <v>47</v>
@@ -10159,9 +10159,9 @@
       <c r="A14" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="497" t="str">
+      <c r="B14" s="497">
         <f>MASTERSHEET!B6</f>
-        <v>11th july 2018</v>
+        <v>43292</v>
       </c>
       <c r="C14" s="498"/>
     </row>
@@ -10393,7 +10393,7 @@
       </c>
       <c r="B35" s="30" t="str">
         <f>MASTERSHEET!D7</f>
-        <v>unmarried</v>
+        <v>single</v>
       </c>
       <c r="C35" s="21"/>
     </row>
@@ -10453,7 +10453,7 @@
       </c>
       <c r="B43" s="30" t="str">
         <f>MASTERSHEET!D8</f>
-        <v>bhawanimandi</v>
+        <v>Bhawanimandi,Rajasthan</v>
       </c>
       <c r="C43" s="21"/>
     </row>
@@ -11670,9 +11670,9 @@
       <c r="A48" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="87" t="str">
+      <c r="B48" s="87">
         <f>MASTERSHEET!B6</f>
-        <v>11th july 2018</v>
+        <v>43292</v>
       </c>
       <c r="C48" s="38"/>
       <c r="D48" s="38"/>
@@ -11982,7 +11982,7 @@
         <v>Gajanand Patidar</v>
       </c>
       <c r="E17" s="269" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F17" s="266" t="str">
         <f>+MASTERSHEET!D36</f>
@@ -12025,7 +12025,7 @@
         <v>Gajanand Patidar</v>
       </c>
       <c r="E20" s="266" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F20" s="266" t="str">
         <f>+MASTERSHEET!D36</f>
@@ -12281,9 +12281,9 @@
       <c r="A42" s="49" t="s">
         <v>439</v>
       </c>
-      <c r="B42" s="261" t="str">
+      <c r="B42" s="261">
         <f>+MASTERSHEET!B6</f>
-        <v>11th july 2018</v>
+        <v>43292</v>
       </c>
       <c r="C42" s="250"/>
       <c r="D42" s="250"/>
@@ -12807,9 +12807,9 @@
       <c r="A42" s="49" t="s">
         <v>439</v>
       </c>
-      <c r="B42" s="261" t="str">
+      <c r="B42" s="261">
         <f>+MASTERSHEET!B6</f>
-        <v>11th july 2018</v>
+        <v>43292</v>
       </c>
       <c r="C42" s="250"/>
       <c r="D42" s="250"/>
@@ -13140,7 +13140,7 @@
       </c>
       <c r="D20" s="307" t="str">
         <f>UPPER(MASTERSHEET!D7)</f>
-        <v>UNMARRIED</v>
+        <v>SINGLE</v>
       </c>
       <c r="E20" s="297"/>
       <c r="F20" s="297"/>
@@ -13537,7 +13537,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="359" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D57" s="602">
         <v>25934</v>
@@ -13554,7 +13554,7 @@
         <v>2</v>
       </c>
       <c r="C58" s="359" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D58" s="562">
         <v>28856</v>
@@ -13722,9 +13722,9 @@
       <c r="B72" s="296" t="s">
         <v>51</v>
       </c>
-      <c r="C72" s="555" t="str">
+      <c r="C72" s="555">
         <f>MASTERSHEET!B6</f>
-        <v>11th july 2018</v>
+        <v>43292</v>
       </c>
       <c r="D72" s="555"/>
       <c r="E72" s="297"/>
@@ -13882,9 +13882,9 @@
       <c r="G87" s="298"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B88" s="353" t="str">
+      <c r="B88" s="353">
         <f>MASTERSHEET!B6</f>
-        <v>11th july 2018</v>
+        <v>43292</v>
       </c>
       <c r="C88" s="297"/>
       <c r="D88" s="547" t="s">
@@ -14278,7 +14278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -15399,7 +15399,7 @@
       </c>
       <c r="F44" s="643" t="str">
         <f>UPPER(+MASTERSHEET!D7)</f>
-        <v>UNMARRIED</v>
+        <v>SINGLE</v>
       </c>
       <c r="G44" s="643"/>
       <c r="H44" s="643"/>
@@ -15951,9 +15951,9 @@
       <c r="E47" s="396" t="s">
         <v>330</v>
       </c>
-      <c r="F47" s="640" t="str">
+      <c r="F47" s="640">
         <f>+MASTERSHEET!B6</f>
-        <v>11th july 2018</v>
+        <v>43292</v>
       </c>
       <c r="G47" s="640"/>
       <c r="H47" s="640"/>
@@ -18559,9 +18559,9 @@
         <v>393</v>
       </c>
       <c r="B57" s="620"/>
-      <c r="C57" s="233" t="str">
+      <c r="C57" s="233">
         <f>+MASTERSHEET!B6</f>
-        <v>11th july 2018</v>
+        <v>43292</v>
       </c>
       <c r="D57" s="232"/>
       <c r="E57" s="232"/>
@@ -23237,9 +23237,9 @@
         <v>393</v>
       </c>
       <c r="B75" s="620"/>
-      <c r="C75" s="233" t="str">
+      <c r="C75" s="233">
         <f>+MASTERSHEET!B6</f>
-        <v>11th july 2018</v>
+        <v>43292</v>
       </c>
       <c r="D75" s="232"/>
       <c r="E75" s="232"/>
@@ -27167,9 +27167,9 @@
         <v>393</v>
       </c>
       <c r="B93" s="620"/>
-      <c r="C93" s="233" t="str">
+      <c r="C93" s="233">
         <f>+C75</f>
-        <v>11th july 2018</v>
+        <v>43292</v>
       </c>
       <c r="D93" s="232"/>
       <c r="E93" s="232"/>
@@ -29769,9 +29769,9 @@
         <v>51</v>
       </c>
       <c r="B104" s="623"/>
-      <c r="C104" s="371" t="str">
+      <c r="C104" s="371">
         <f>+C93</f>
-        <v>11th july 2018</v>
+        <v>43292</v>
       </c>
       <c r="D104" s="372"/>
       <c r="E104" s="372"/>
@@ -34516,9 +34516,9 @@
         <v>29</v>
       </c>
       <c r="B35" s="38"/>
-      <c r="C35" s="57" t="str">
+      <c r="C35" s="57">
         <f>MASTERSHEET!B6</f>
-        <v>11th july 2018</v>
+        <v>43292</v>
       </c>
       <c r="D35" s="37"/>
       <c r="E35" s="37"/>
